--- a/Task_4/processed/combined_data.xlsx
+++ b/Task_4/processed/combined_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WRI\Task_4\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B10D0FD-B740-48CC-8ECF-84D5077F54C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF4CBE3-4996-445A-981E-9C060FA8BA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECDB5D77-0834-4A94-BC3C-5CF422E67691}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="879">
   <si>
     <t>Source</t>
   </si>
@@ -2771,7 +2771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2805,6 +2805,18 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3132,8 +3144,8 @@
   <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,47 +3171,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="14"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="14"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="18"/>
       <c r="AA1" s="3"/>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="14"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="18"/>
     </row>
     <row r="2" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3712,9 +3724,7 @@
         <v>107</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
         <v>96</v>
       </c>
@@ -8250,10 +8260,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="W1:Z1"/>
